--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H2">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>315.297123664052</v>
+        <v>205.7561908781588</v>
       </c>
       <c r="R2">
-        <v>2837.674112976468</v>
+        <v>1851.805717903429</v>
       </c>
       <c r="S2">
-        <v>4.518727963094953E-05</v>
+        <v>0.0003316898168381536</v>
       </c>
       <c r="T2">
-        <v>4.518727963094955E-05</v>
+        <v>0.0003316898168381535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H3">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>1304.479674734272</v>
+        <v>990.0285561462916</v>
       </c>
       <c r="R3">
-        <v>11740.31707260845</v>
+        <v>8910.257005316624</v>
       </c>
       <c r="S3">
-        <v>0.0001869534588520836</v>
+        <v>0.001595978177138597</v>
       </c>
       <c r="T3">
-        <v>0.0001869534588520836</v>
+        <v>0.001595978177138597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H4">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>3442.47448081176</v>
+        <v>1786.904420723887</v>
       </c>
       <c r="R4">
-        <v>30982.27032730584</v>
+        <v>16082.13978651498</v>
       </c>
       <c r="S4">
-        <v>0.0004933633874585968</v>
+        <v>0.002880584042149996</v>
       </c>
       <c r="T4">
-        <v>0.000493363387458597</v>
+        <v>0.002880584042149996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H5">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>923.658490538332</v>
+        <v>440.1363003923107</v>
       </c>
       <c r="R5">
-        <v>8312.926414844987</v>
+        <v>3961.226703530795</v>
       </c>
       <c r="S5">
-        <v>0.0001323755003230783</v>
+        <v>0.0007095228981343124</v>
       </c>
       <c r="T5">
-        <v>0.0001323755003230783</v>
+        <v>0.0007095228981343124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H6">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>3973.300451269564</v>
+        <v>1199.684234823301</v>
       </c>
       <c r="R6">
-        <v>35759.70406142608</v>
+        <v>10797.15811340971</v>
       </c>
       <c r="S6">
-        <v>0.0005694395066559435</v>
+        <v>0.001933954173693837</v>
       </c>
       <c r="T6">
-        <v>0.0005694395066559436</v>
+        <v>0.001933954173693837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>1056.787058405116</v>
+        <v>908.6779380590996</v>
       </c>
       <c r="R7">
-        <v>9511.083525646045</v>
+        <v>8178.101442531896</v>
       </c>
       <c r="S7">
-        <v>0.0001514550204695226</v>
+        <v>0.001464836696059227</v>
       </c>
       <c r="T7">
-        <v>0.0001514550204695226</v>
+        <v>0.001464836696059227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>4372.248063006569</v>
@@ -948,10 +948,10 @@
         <v>39350.23256705912</v>
       </c>
       <c r="S8">
-        <v>0.0006266152813035664</v>
+        <v>0.007048294163106824</v>
       </c>
       <c r="T8">
-        <v>0.0006266152813035664</v>
+        <v>0.007048294163106824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>11538.2038311519</v>
+        <v>7891.47883036763</v>
       </c>
       <c r="R9">
-        <v>103843.8344803671</v>
+        <v>71023.30947330866</v>
       </c>
       <c r="S9">
-        <v>0.001653614967679448</v>
+        <v>0.01272147951736142</v>
       </c>
       <c r="T9">
-        <v>0.001653614967679448</v>
+        <v>0.01272147951736143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>3095.842828642344</v>
+        <v>1943.767252875886</v>
       </c>
       <c r="R10">
-        <v>27862.58545778109</v>
+        <v>17493.90527588298</v>
       </c>
       <c r="S10">
-        <v>0.0004436853529320065</v>
+        <v>0.003133455189516934</v>
       </c>
       <c r="T10">
-        <v>0.0004436853529320065</v>
+        <v>0.003133455189516935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>13317.38281422076</v>
+        <v>5298.14724975531</v>
       </c>
       <c r="R11">
-        <v>119856.4453279868</v>
+        <v>47683.32524779779</v>
       </c>
       <c r="S11">
-        <v>0.001908600669062194</v>
+        <v>0.008540892419093907</v>
       </c>
       <c r="T11">
-        <v>0.001908600669062194</v>
+        <v>0.008540892419093908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H12">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>157038.7920131448</v>
+        <v>7903.844740536155</v>
       </c>
       <c r="R12">
-        <v>1413349.128118303</v>
+        <v>71134.60266482539</v>
       </c>
       <c r="S12">
-        <v>0.02250624974037323</v>
+        <v>0.01274141401586341</v>
       </c>
       <c r="T12">
-        <v>0.02250624974037324</v>
+        <v>0.01274141401586341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H13">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>649717.0349839322</v>
+        <v>38030.60293389259</v>
       </c>
       <c r="R13">
-        <v>5847453.314855389</v>
+        <v>342275.4264050333</v>
       </c>
       <c r="S13">
-        <v>0.09311517022303135</v>
+        <v>0.06130733499463516</v>
       </c>
       <c r="T13">
-        <v>0.09311517022303135</v>
+        <v>0.06130733499463515</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H14">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>1714579.656548869</v>
+        <v>68641.50744286795</v>
       </c>
       <c r="R14">
-        <v>15431216.90893982</v>
+        <v>617773.5669858116</v>
       </c>
       <c r="S14">
-        <v>0.2457275521249691</v>
+        <v>0.1106537253340863</v>
       </c>
       <c r="T14">
-        <v>0.2457275521249691</v>
+        <v>0.1106537253340863</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H15">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>460042.9331584225</v>
+        <v>16907.23845599768</v>
       </c>
       <c r="R15">
-        <v>4140386.398425802</v>
+        <v>152165.1461039791</v>
       </c>
       <c r="S15">
-        <v>0.06593174216527742</v>
+        <v>0.02725535889235858</v>
       </c>
       <c r="T15">
-        <v>0.06593174216527742</v>
+        <v>0.02725535889235858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H16">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>1978966.049298581</v>
+        <v>46084.24120432539</v>
       </c>
       <c r="R16">
-        <v>17810694.44368723</v>
+        <v>414758.1708389285</v>
       </c>
       <c r="S16">
-        <v>0.2836184840845283</v>
+        <v>0.07429022407029097</v>
       </c>
       <c r="T16">
-        <v>0.2836184840845283</v>
+        <v>0.07429022407029097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H17">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>2645.302735120603</v>
+        <v>3328.795079857525</v>
       </c>
       <c r="R17">
-        <v>23807.72461608543</v>
+        <v>29959.15571871772</v>
       </c>
       <c r="S17">
-        <v>0.0003791155244656575</v>
+        <v>0.005366192995784571</v>
       </c>
       <c r="T17">
-        <v>0.0003791155244656577</v>
+        <v>0.005366192995784571</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H18">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>10944.41843104335</v>
+        <v>16017.02564842755</v>
       </c>
       <c r="R18">
-        <v>98499.76587939015</v>
+        <v>144153.230835848</v>
       </c>
       <c r="S18">
-        <v>0.001568515723500902</v>
+        <v>0.02582028895920277</v>
       </c>
       <c r="T18">
-        <v>0.001568515723500902</v>
+        <v>0.02582028895920277</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H19">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>28881.9227205417</v>
+        <v>28909.16000385943</v>
       </c>
       <c r="R19">
-        <v>259937.3044848753</v>
+        <v>260182.4400347349</v>
       </c>
       <c r="S19">
-        <v>0.004139256023290486</v>
+        <v>0.04660308856661904</v>
       </c>
       <c r="T19">
-        <v>0.004139256023290488</v>
+        <v>0.04660308856661904</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H20">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>7749.377168254176</v>
+        <v>7120.677851585078</v>
       </c>
       <c r="R20">
-        <v>69744.39451428757</v>
+        <v>64086.1006642657</v>
       </c>
       <c r="S20">
-        <v>0.00111061359836795</v>
+        <v>0.01147890774161131</v>
       </c>
       <c r="T20">
-        <v>0.00111061359836795</v>
+        <v>0.01147890774161131</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H21">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>33335.48504679128</v>
+        <v>19408.90799551809</v>
       </c>
       <c r="R21">
-        <v>300019.3654211215</v>
+        <v>174680.1719596628</v>
       </c>
       <c r="S21">
-        <v>0.004777524980049278</v>
+        <v>0.03128818195256228</v>
       </c>
       <c r="T21">
-        <v>0.004777524980049278</v>
+        <v>0.03128818195256229</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H22">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>59845.45154026336</v>
+        <v>15264.79812724646</v>
       </c>
       <c r="R22">
-        <v>538609.0638623703</v>
+        <v>137383.1831452182</v>
       </c>
       <c r="S22">
-        <v>0.008576840543181398</v>
+        <v>0.02460765857536697</v>
       </c>
       <c r="T22">
-        <v>0.0085768405431814</v>
+        <v>0.02460765857536697</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H23">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>247598.7546361149</v>
+        <v>73448.99798777643</v>
       </c>
       <c r="R23">
-        <v>2228388.791725034</v>
+        <v>661040.9818899878</v>
       </c>
       <c r="S23">
-        <v>0.03548498645340672</v>
+        <v>0.1184036533021644</v>
       </c>
       <c r="T23">
-        <v>0.03548498645340672</v>
+        <v>0.1184036533021644</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H24">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>653404.1202974096</v>
+        <v>132568.2359233929</v>
       </c>
       <c r="R24">
-        <v>5880637.082676687</v>
+        <v>1193114.123310536</v>
       </c>
       <c r="S24">
-        <v>0.09364359037842988</v>
+        <v>0.2137069786542929</v>
       </c>
       <c r="T24">
-        <v>0.0936435903784299</v>
+        <v>0.2137069786542929</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H25">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>175316.408830173</v>
+        <v>32653.16948805798</v>
       </c>
       <c r="R25">
-        <v>1577847.679471557</v>
+        <v>293878.5253925218</v>
       </c>
       <c r="S25">
-        <v>0.02512573377657526</v>
+        <v>0.05263862905147134</v>
       </c>
       <c r="T25">
-        <v>0.02512573377657526</v>
+        <v>0.05263862905147135</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H26">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>754158.3533908708</v>
+        <v>89003.09430719423</v>
       </c>
       <c r="R26">
-        <v>6787425.180517838</v>
+        <v>801027.8487647481</v>
       </c>
       <c r="S26">
-        <v>0.1080833342361858</v>
+        <v>0.1434776758005967</v>
       </c>
       <c r="T26">
-        <v>0.1080833342361858</v>
+        <v>0.1434776758005967</v>
       </c>
     </row>
   </sheetData>
